--- a/Personal_Monthly_Expenditure_Lab4.xlsx
+++ b/Personal_Monthly_Expenditure_Lab4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandipsahajoy/gitlab/IBMDeveloperSkillsNetwork-DA0130EN-SkillsNetwork/Hands-on Labs/Lab 4 - Simple use of functions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilchrist\Pictures\MOTAUNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F44A5-E7D0-C449-BB08-FF6B52489AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88B25C8-E17B-41E5-8E1B-B70302EFA036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2360" windowWidth="29440" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense - 2018" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Month</t>
   </si>
@@ -88,16 +88,32 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>total sum</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min </t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +127,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,12 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,6 +170,32 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -309,58 +358,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -484,6 +481,32 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -561,25 +584,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AB075690-6493-4B96-8D1B-B29AB2D9E9A9}" name="Table6" displayName="Table6" ref="A1:G13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:G13" xr:uid="{1C96BD00-98D9-4572-8F4A-F406BBA95AE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AB075690-6493-4B96-8D1B-B29AB2D9E9A9}" name="Table6" displayName="Table6" ref="A1:G18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:G18" xr:uid="{1C96BD00-98D9-4572-8F4A-F406BBA95AE3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0738465F-87B9-46AD-8314-585AF20E321C}" name="Month" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{639B5A90-C646-4312-A12B-90EBA415C5F3}" name="Housing" dataDxfId="5" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{AC863E34-6694-4292-A7E8-5D94B1D4B90E}" name="Bills &amp; Utilities" dataDxfId="4" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7F96B093-000D-47C8-9B3D-9C6DC794A7DD}" name="Food &amp; Dining" dataDxfId="3" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0D73BCA8-FF88-432A-8438-8D3C42615074}" name="Personal" dataDxfId="2" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{62ECB4B2-7FAC-4168-96E6-6A3296B9F2CB}" name="Auto &amp; Transport" dataDxfId="1" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{5C8E2143-EA5D-49A7-8A33-6E4F45D73494}" name="Health &amp; Fitness" dataDxfId="0" totalsRowDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{0738465F-87B9-46AD-8314-585AF20E321C}" name="Month" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{639B5A90-C646-4312-A12B-90EBA415C5F3}" name="Housing" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{AC863E34-6694-4292-A7E8-5D94B1D4B90E}" name="Bills &amp; Utilities" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7F96B093-000D-47C8-9B3D-9C6DC794A7DD}" name="Food &amp; Dining" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{0D73BCA8-FF88-432A-8438-8D3C42615074}" name="Personal" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{62ECB4B2-7FAC-4168-96E6-6A3296B9F2CB}" name="Auto &amp; Transport" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5C8E2143-EA5D-49A7-8A33-6E4F45D73494}" name="Health &amp; Fitness" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -617,7 +640,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -723,7 +746,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -865,7 +888,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -873,320 +896,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>800</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2">
+        <v>800</v>
+      </c>
+      <c r="C2" s="2">
         <v>210</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>400</v>
       </c>
-      <c r="E2" s="4">
-        <v>100</v>
-      </c>
-      <c r="F2" s="4">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
-        <v>800</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="2">
+        <v>800</v>
+      </c>
+      <c r="C3" s="2">
         <v>180</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>350</v>
       </c>
-      <c r="E3" s="4">
-        <v>100</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
         <v>125</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
-        <v>800</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="2">
+        <v>800</v>
+      </c>
+      <c r="C4" s="2">
         <v>170</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>420</v>
       </c>
-      <c r="E4" s="4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
         <v>120</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
-        <v>800</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="2">
+        <v>800</v>
+      </c>
+      <c r="C5" s="2">
         <v>160</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>400</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>120</v>
       </c>
-      <c r="F5" s="4">
-        <v>100</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
-        <v>800</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="2">
+        <v>800</v>
+      </c>
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>420</v>
       </c>
-      <c r="E6" s="4">
-        <v>100</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
-        <v>800</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="2">
+        <v>800</v>
+      </c>
+      <c r="C7" s="2">
         <v>150</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>380</v>
       </c>
-      <c r="E7" s="4">
-        <v>100</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
         <v>130</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
-        <v>800</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2">
+        <v>800</v>
+      </c>
+      <c r="C8" s="2">
         <v>150</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>420</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>120</v>
       </c>
-      <c r="F8" s="4">
-        <v>100</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4">
-        <v>800</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="2">
+        <v>800</v>
+      </c>
+      <c r="C9" s="2">
         <v>150</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>420</v>
       </c>
-      <c r="E9" s="4">
-        <v>100</v>
-      </c>
-      <c r="F9" s="4">
-        <v>100</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>800</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="2">
+        <v>800</v>
+      </c>
+      <c r="C10" s="2">
         <v>150</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>400</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>120</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>110</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>800</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="2">
+        <v>800</v>
+      </c>
+      <c r="C11" s="2">
         <v>170</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>420</v>
       </c>
-      <c r="E11" s="4">
-        <v>100</v>
-      </c>
-      <c r="F11" s="4">
-        <v>100</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
-        <v>800</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="2">
+        <v>800</v>
+      </c>
+      <c r="C12" s="2">
         <v>200</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>390</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>120</v>
       </c>
-      <c r="F12" s="4">
-        <v>100</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4">
-        <v>800</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="2">
+        <v>800</v>
+      </c>
+      <c r="C13" s="2">
         <v>220</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>400</v>
       </c>
-      <c r="E13" s="4">
-        <v>100</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUM(B2:B13)</f>
+        <v>9600</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:G14" si="0">SUM(C2:C13)</f>
+        <v>2060</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>4820</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <f>AVERAGE(B2:B13)</f>
+        <v>800</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:G15" si="1">AVERAGE(C2:C13)</f>
+        <v>171.66666666666666</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>401.66666666666669</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <f>MIN(B2:B13)</f>
+        <v>800</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:G16" si="2">MIN(C2:C13)</f>
+        <v>150</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <f>MAX(B2:B13)</f>
+        <v>800</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:G17" si="3">MAX(C2:C13)</f>
+        <v>220</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5">
+        <f>COUNT(B2:B13)</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:G18" si="4">COUNT(C2:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1373,7 @@
       <selection activeCell="I17" sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
